--- a/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t>Beskriver administrering av legemiddel til pasient på institusjon.
-Dette er kjerneressursen for denne implementasjonsguiden. Den peker videre legemiddelet som ble gitt, pasienten som har fått administrert legemiddel, på hvilken institusjon det skjedde, tidspunkt for administrering, hvem som utførte (helsepersonell eller rolle ved institusjon) og dose med eventuell administrasjonsvei.</t>
+Dette er kjerneressursen for denne implementasjonsguiden. Den peker videre legemiddelet som ble gitt, pasienten som har fått administrert legemiddel, på hvilken institusjon det skjedde, tidspunkt for administrering, hvem som utførte den (helsepersonell eller rolle ved institusjon) og dose med eventuell administrasjonsvei.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -531,7 +531,7 @@
     <t>MedicationAdministration.status</t>
   </si>
   <si>
-    <t>Status administrering.</t>
+    <t>Status administrering (completed | entered-in-error)</t>
   </si>
   <si>
     <t>Status administrering. Skal vanligvis settes til 'Gjennomført' (completed), men 'Feilregistrert' (entered-in-error) MÅ benyttes hvis registreringen inneholder en alvorlig feil og skal slettes.</t>
@@ -642,7 +642,7 @@
 </t>
   </si>
   <si>
-    <t>Referanse til pasient</t>
+    <t>Hvem fikk legemidlet (pasient)</t>
   </si>
   <si>
     <t>Det skal alltid være en referanse til pasienten som har blitt administrert legemiddel.</t>
@@ -663,17 +663,14 @@
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-episodeofcare)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-encounter)
 </t>
   </si>
   <si>
-    <t>Referanse til aktuelt institusjonsopphold</t>
+    <t>Episoden (f.eks. konsultasjonen/innleggelsen) som legemidlet ble administrert i forbindelse med.</t>
   </si>
   <si>
     <t>Referanse til hvilket institusjonsopphold eller avtale pasienten var på da legemiddelet ble administrert.</t>
-  </si>
-  <si>
-    <t>Encounter må vurderes om nødvendig, f.eks. hos spesialist.</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -707,41 +704,45 @@
     <t>MedicationAdministration.effective[x]</t>
   </si>
   <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Tidspunktet eller periode legemidlet ble administrert</t>
+  </si>
+  <si>
+    <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>RXA-3-Date/Time Start of Administration / RXA-4-Date/Time End of Administration</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x]:effectiveDateTime</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Tidspunkt eller periode for administrering</t>
-  </si>
-  <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>RXA-3-Date/Time Start of Administration / RXA-4-Date/Time End of Administration</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.effective[x]:effectiveDateTime</t>
-  </si>
-  <si>
-    <t>effectiveDateTime</t>
-  </si>
-  <si>
     <t>Start and end time of administration</t>
   </si>
   <si>
@@ -749,6 +750,115 @@
 time-required:Må inneholde tidspunkt for administrering. {$this.matches('^[0-9]{4}-[0-9]{2}-[0-9]{2}T[0-9]{2}:[0-9]{2}.*$')}</t>
   </si>
   <si>
+    <t>MedicationAdministration.effective[x]:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x]:effectivePeriod.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x]:effectivePeriod.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x].extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x]:effectivePeriod.start</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x].start</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x]:effectivePeriod.end</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x].end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer</t>
   </si>
   <si>
@@ -777,29 +887,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -862,7 +950,7 @@
     <t>MedicationAdministration.reasonCode</t>
   </si>
   <si>
-    <t>Reason administration performed</t>
+    <t>Årsak til utført administrering (Given as Ordered, Emergency, None)</t>
   </si>
   <si>
     <t>A code indicating why the medication was given.</t>
@@ -890,7 +978,7 @@
 </t>
   </si>
   <si>
-    <t>Condition or observation that supports why the medication was administered</t>
+    <t>Indikasjon (diagnose) for legemiddeladministreringen</t>
   </si>
   <si>
     <t>Condition or observation that supports why the medication was administered.</t>
@@ -918,10 +1006,10 @@
 </t>
   </si>
   <si>
-    <t>Referanse til rekvisisjon</t>
-  </si>
-  <si>
-    <t>Referanse til rekvisisjonen som denne administreringen er basert på.</t>
+    <t>Referanse til rekivreringen</t>
+  </si>
+  <si>
+    <t>Referanse til rekivreringen som denne administreringen er basert på.</t>
   </si>
   <si>
     <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
@@ -1067,16 +1155,6 @@
     <t>MedicationAdministration.dosage.route.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.route.coding</t>
   </si>
   <si>
@@ -1296,7 +1374,13 @@
     <t>MedicationAdministration.dosage.route.coding:7477.code</t>
   </si>
   <si>
+    <t>Verdi fra kodeverket</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.coding:7477.display</t>
+  </si>
+  <si>
+    <t>Beskrivelse av koden (navn) fra kodeverket</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route.coding:7477.userSelected</t>
@@ -1748,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3935,9 +4019,7 @@
       <c r="M19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4001,16 +4083,16 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4018,10 +4100,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4044,13 +4126,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4101,7 +4183,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4119,10 +4201,10 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4133,10 +4215,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4159,13 +4241,13 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4204,17 +4286,17 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -4229,16 +4311,16 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4246,20 +4328,20 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4274,13 +4356,13 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4331,7 +4413,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
@@ -4346,16 +4428,16 @@
         <v>234</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4366,9 +4448,11 @@
         <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4377,7 +4461,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4389,13 +4473,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4446,13 +4530,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4461,16 +4545,16 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4478,10 +4562,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4504,13 +4588,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4561,7 +4645,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4579,7 +4663,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4593,10 +4677,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4625,7 +4709,7 @@
         <v>135</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>137</v>
@@ -4666,16 +4750,16 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>251</v>
@@ -4696,7 +4780,7 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4713,30 +4797,30 @@
         <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>254</v>
@@ -4745,11 +4829,9 @@
         <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4797,31 +4879,31 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -4829,10 +4911,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4840,7 +4922,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -4852,23 +4934,27 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="R27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4888,13 +4974,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4912,7 +4998,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4921,22 +5007,22 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -4944,10 +5030,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4955,10 +5041,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4970,13 +5056,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5027,13 +5113,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -5042,16 +5128,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5059,10 +5145,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5073,7 +5159,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5085,13 +5171,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5118,13 +5204,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5142,31 +5228,31 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5174,14 +5260,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5200,16 +5286,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5259,7 +5345,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5271,64 +5357,66 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I31" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5376,31 +5464,31 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>131</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5408,10 +5496,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5422,7 +5510,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5434,13 +5522,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5467,13 +5555,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5491,13 +5579,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5506,16 +5594,16 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5523,10 +5611,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5534,10 +5622,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5546,16 +5634,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5606,13 +5694,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5621,10 +5709,10 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5638,10 +5726,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5652,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5664,13 +5752,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5697,13 +5785,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5721,31 +5809,31 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -5753,10 +5841,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5767,7 +5855,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5779,15 +5867,17 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5836,56 +5926,56 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
@@ -5894,16 +5984,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5953,31 +6043,31 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5985,46 +6075,42 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6072,7 +6158,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6084,19 +6170,19 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6104,10 +6190,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6118,7 +6204,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6130,13 +6216,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6187,13 +6273,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6202,10 +6288,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6219,10 +6305,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6245,17 +6331,15 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6280,13 +6364,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6304,7 +6388,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6316,19 +6400,19 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6336,10 +6420,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6353,7 +6437,7 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>78</v>
@@ -6362,17 +6446,15 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6397,13 +6479,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6421,7 +6503,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6433,19 +6515,19 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6453,21 +6535,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6479,15 +6561,17 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6536,25 +6620,25 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6568,14 +6652,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6588,24 +6672,26 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6641,19 +6727,19 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6671,7 +6757,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6685,10 +6771,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6699,7 +6785,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6708,23 +6794,19 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O43" t="s" s="2">
         <v>345</v>
       </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6760,23 +6842,25 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6788,13 +6872,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6802,14 +6886,12 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6827,23 +6909,21 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>175</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6867,13 +6947,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6897,7 +6977,7 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -6909,13 +6989,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6923,7 +7003,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>355</v>
@@ -6940,7 +7020,7 @@
         <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
@@ -6949,15 +7029,17 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6982,13 +7064,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7006,7 +7088,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7018,19 +7100,19 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>248</v>
+        <v>361</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7038,21 +7120,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7064,17 +7146,15 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7111,37 +7191,37 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7155,21 +7235,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7178,23 +7258,21 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>135</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>361</v>
+        <v>247</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7203,7 +7281,7 @@
         <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>78</v>
@@ -7230,43 +7308,43 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>366</v>
+        <v>244</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7274,10 +7352,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7288,7 +7366,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7300,18 +7378,20 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7347,25 +7427,23 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7377,13 +7455,13 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7391,12 +7469,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7417,17 +7497,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>366</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7452,11 +7534,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7474,13 +7558,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7492,13 +7576,13 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7506,10 +7590,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7529,21 +7613,19 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>386</v>
+        <v>241</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>387</v>
+        <v>242</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7591,7 +7673,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>243</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7603,19 +7685,19 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>390</v>
+        <v>244</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7623,21 +7705,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7646,23 +7728,21 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>135</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>247</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7698,43 +7778,43 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>399</v>
+        <v>251</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>400</v>
+        <v>244</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -7742,20 +7822,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -7770,19 +7848,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>341</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7792,7 +7870,7 @@
         <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>78</v>
@@ -7831,13 +7909,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -7849,13 +7927,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -7863,10 +7941,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7886,18 +7964,20 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>245</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7946,7 +8026,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>247</v>
+        <v>398</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7958,19 +8038,19 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>248</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -7978,21 +8058,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8001,21 +8081,21 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>135</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8039,55 +8119,53 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>251</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>248</v>
+        <v>407</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8095,10 +8173,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8106,7 +8184,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8121,19 +8199,17 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8143,7 +8219,7 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>78</v>
@@ -8182,7 +8258,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8200,13 +8276,13 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8214,10 +8290,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8240,18 +8316,20 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>244</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8299,7 +8377,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8317,13 +8395,13 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8331,12 +8409,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8357,17 +8437,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>108</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8416,13 +8498,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8434,13 +8516,13 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8448,10 +8530,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8471,21 +8553,19 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>386</v>
+        <v>241</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>387</v>
+        <v>242</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8533,7 +8613,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>389</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8545,19 +8625,19 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>390</v>
+        <v>244</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8565,21 +8645,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8588,23 +8668,21 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>394</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>135</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
+        <v>247</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8640,43 +8718,43 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>399</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>400</v>
+        <v>244</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8684,10 +8762,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8695,7 +8773,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -8710,19 +8788,19 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8732,7 +8810,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -8771,7 +8849,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8789,13 +8867,13 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8803,10 +8881,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8826,19 +8904,19 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8864,13 +8942,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8888,7 +8966,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8906,13 +8984,13 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -8920,10 +8998,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8931,7 +9009,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -8943,21 +9021,21 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>431</v>
+        <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9005,7 +9083,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9023,13 +9101,13 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9037,10 +9115,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9060,21 +9138,21 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>438</v>
+        <v>240</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>439</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9110,17 +9188,19 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9138,13 +9218,13 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9152,14 +9232,12 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9171,27 +9249,29 @@
         <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K64" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9239,7 +9319,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9257,13 +9337,13 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9271,10 +9351,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9294,21 +9374,23 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>448</v>
+        <v>240</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9356,13 +9438,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -9374,20 +9456,605 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO65" t="s" s="2">
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC68" s="2"/>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO65">
+  <autoFilter ref="A1:AO70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9397,7 +10064,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
